--- a/AfterClass04_20230321/aggregates ej gastos.xlsx
+++ b/AfterClass04_20230321/aggregates ej gastos.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\dev\CoderHouse\DesafiosBackend-main\AfterClass\04-AfterClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE78CFF5-1CC9-4B33-9800-55D502F689B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7FBC5-CFDD-4DEF-B18B-918925C39D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8ABFEE5B-4EFE-432A-9227-CB8AD39FFE08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{8ABFEE5B-4EFE-432A-9227-CB8AD39FFE08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gastos" sheetId="1" r:id="rId1"/>
+    <sheet name="Estudiantes" sheetId="2" r:id="rId2"/>
+    <sheet name="Encuesta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$G$1:$N$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Encuesta!$F$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estudiantes!$L$1:$P$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Gastos!$G$1:$N$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="183">
   <si>
     <t>]</t>
   </si>
@@ -252,6 +256,342 @@
   </si>
   <si>
     <t>Quintana</t>
+  </si>
+  <si>
+    <t>const estudiantes = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Justino", "last_name": "Fidgin", "email": "jfidgin0@boston.com", "gender": "Male", "grade": 6, "group": "1B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Ketty", "last_name": "Robson", "email": "krobson1@prlog.org", "gender": "Female", "grade": 10, "group": "2A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Dierdre", "last_name": "Barron", "email": "dbarron2@dailymail.co.uk", "gender": "Female", "grade": 9, "group": "1B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Nana", "last_name": "Pellew", "email": "npellew3@nytimes.com", "gender": "Female", "grade": 6, "group": "1A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Shannan", "last_name": "Preshous", "email": "spreshous4@paginegialle.it", "gender": "Male", "grade": 8, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Mark", "last_name": "Yurchishin", "email": "iyurchishin5@google.it", "gender": "Male", "grade": 10, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Tannie", "last_name": "Takkos", "email": "ttakkos6@mtv.com", "gender": "Female", "grade": 7, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Debbi", "last_name": "Eddowis", "email": "deddowis7@jigsy.com", "gender": "Female", "grade": 6, "group": "1B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Dugald", "last_name": "Toun", "email": "dtoun8@java.com", "gender": "Male", "grade": 4, "group": "1A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Lorain", "last_name": "Judkin", "email": "ljudkin9@bigcartel.com", "gender": "Genderqueer", "grade": 8, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Shelley", "last_name": "Crinion", "email": "scriniona@wsj.com", "gender": "Genderfluid", "grade": 8, "group": "2A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Kellyann", "last_name": "Doel", "email": "kdoelb@merriam-webster.com", "gender": "Female", "grade": 8, "group": "1B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Romona", "last_name": "Derricoat", "email": "rderricoatc@vkontakte.ru", "gender": "Female", "grade": 5, "group": "1A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Lorine", "last_name": "McVaugh", "email": "lmcvaughd@unc.edu", "gender": "Female", "grade": 4, "group": "2A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Ker", "last_name": "Chiese", "email": "kchiesee@prlog.org", "gender": "Male", "grade": 8, "group": "1A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Aloisia", "last_name": "Hovie", "email": "ahovief@simplemachines.org", "gender": "Female", "grade": 8, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Marshall", "last_name": "Chatten", "email": "mchatteng@creativecommons.org", "gender": "Male", "grade": 9, "group": "2B" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Marcelo", "last_name": "Rubega", "email": "mrubegah@house.gov", "gender": "Male", "grade": 6, "group": "1A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Yves", "last_name": "Halsey", "email": "yhalseyi@naver.com", "gender": "Male", "grade": 5, "group": "2A" },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    { "first_name": "Corene", "last_name": "Greed", "email": "cgreedj@epa.gov", "gender": "Female", "grade": 8, "group": "1A" }</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Genderqueer</t>
+  </si>
+  <si>
+    <t>Gernderfluid</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t>Ketty</t>
+  </si>
+  <si>
+    <t>Dierdre</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>Shannan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Tannie</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
+    <t>Dugald</t>
+  </si>
+  <si>
+    <t>Lorain</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Kellyann</t>
+  </si>
+  <si>
+    <t>Romona</t>
+  </si>
+  <si>
+    <t>Lorine</t>
+  </si>
+  <si>
+    <t>Ker</t>
+  </si>
+  <si>
+    <t>Aloisia</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>Corene</t>
+  </si>
+  <si>
+    <t>Fidgin</t>
+  </si>
+  <si>
+    <t>Robson</t>
+  </si>
+  <si>
+    <t>Barron</t>
+  </si>
+  <si>
+    <t>Pellew</t>
+  </si>
+  <si>
+    <t>Preshous</t>
+  </si>
+  <si>
+    <t>Yurchishin</t>
+  </si>
+  <si>
+    <t>Takkos</t>
+  </si>
+  <si>
+    <t>Eddowis</t>
+  </si>
+  <si>
+    <t>Toun</t>
+  </si>
+  <si>
+    <t>Judkin</t>
+  </si>
+  <si>
+    <t>Crinion</t>
+  </si>
+  <si>
+    <t>Doel</t>
+  </si>
+  <si>
+    <t>Derricoat</t>
+  </si>
+  <si>
+    <t>McVaugh</t>
+  </si>
+  <si>
+    <t>Chiese</t>
+  </si>
+  <si>
+    <t>Hovie</t>
+  </si>
+  <si>
+    <t>Chatten</t>
+  </si>
+  <si>
+    <t>Rubega</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Greed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>let encuesta=[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        candidato:'CANDIDATO A',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        partidoo:'ROJO',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        presupuesto:3000000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        datos:[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                rangoEtario:'jovenes',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                votos:100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                rangoEtario:'mayores',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                votos:150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        candidato:'CANDIDATO B',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        partidoo:'VERDE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        presupuesto:1500000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                votos:200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                votos:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        candidato:'CANDIDATO C',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        partidoo:'AZUL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        presupuesto:700000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                votos:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>candidato</t>
+  </si>
+  <si>
+    <t>partido</t>
+  </si>
+  <si>
+    <t>rangoEtario</t>
+  </si>
+  <si>
+    <t>votos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ROJO</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>jovenes</t>
+  </si>
+  <si>
+    <t>mayores</t>
+  </si>
+  <si>
+    <t>Votos:</t>
+  </si>
+  <si>
+    <t>Total A</t>
+  </si>
+  <si>
+    <t>Total B</t>
+  </si>
+  <si>
+    <t>Total C</t>
+  </si>
+  <si>
+    <t>porcent.</t>
   </si>
 </sst>
 </file>
@@ -303,12 +643,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ED6DFB-00BC-4DE9-B627-AC9AA1FB952F}">
   <dimension ref="A1:N348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1837,7 @@
       <c r="M30" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30">
         <v>12000</v>
       </c>
     </row>
@@ -1759,7 +2098,7 @@
       <c r="M39" t="s">
         <v>49</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39">
         <v>11000</v>
       </c>
     </row>
@@ -1977,6 +2316,9 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="N49" s="2">
         <f>+SUBTOTAL(9,N2:N46)</f>
@@ -3388,4 +3730,855 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1D3D77-4804-4654-A99B-7846D79323DE}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="2">
+        <f>+SUBTOTAL(101,O2:O21)</f>
+        <v>8.4166666666666661</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L1:P21" xr:uid="{4C1D3D77-4804-4654-A99B-7846D79323DE}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="7"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680DB5C-8F49-4ACA-BA1A-48B3CE39184D}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="2">
+        <f>+SUBTOTAL(9,I2:I7)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15">
+        <f>+I2+I3</f>
+        <v>250</v>
+      </c>
+      <c r="J15">
+        <f>+I15/$I$11*100</f>
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16">
+        <f>+I4+I5</f>
+        <v>230</v>
+      </c>
+      <c r="J16">
+        <f>+I16/$I$11*100</f>
+        <v>32.857142857142854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17">
+        <f>+I6+I7</f>
+        <v>220</v>
+      </c>
+      <c r="J17">
+        <f>+I17/$I$11*100</f>
+        <v>31.428571428571427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="2">
+        <f>+SUM(I15:I17)</f>
+        <v>700</v>
+      </c>
+      <c r="J18" s="2">
+        <f>+SUM(J15:J17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:I7" xr:uid="{2680DB5C-8F49-4ACA-BA1A-48B3CE39184D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AfterClass04_20230321/aggregates ej gastos.xlsx
+++ b/AfterClass04_20230321/aggregates ej gastos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\dev\CoderHouse\DesafiosBackend-main\AfterClass\04-AfterClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\dev\Practica en clase para subir\AfterClass04_20230321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D7FBC5-CFDD-4DEF-B18B-918925C39D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F669E00-04F5-40AA-87F9-01BB79B6D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{8ABFEE5B-4EFE-432A-9227-CB8AD39FFE08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{8ABFEE5B-4EFE-432A-9227-CB8AD39FFE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" r:id="rId1"/>
@@ -3734,11 +3734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1D3D77-4804-4654-A99B-7846D79323DE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,7 +3762,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -4174,17 +4173,11 @@
       </c>
       <c r="O25" s="2">
         <f>+SUBTOTAL(101,O2:O21)</f>
-        <v>8.4166666666666661</v>
+        <v>7.15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:P21" xr:uid="{4C1D3D77-4804-4654-A99B-7846D79323DE}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="7"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="L1:P21" xr:uid="{4C1D3D77-4804-4654-A99B-7846D79323DE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4194,7 +4187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680DB5C-8F49-4ACA-BA1A-48B3CE39184D}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
